--- a/Test Design Specifications/UserRegistration_Test Design Specification.xlsx
+++ b/Test Design Specifications/UserRegistration_Test Design Specification.xlsx
@@ -5,22 +5,21 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GrannyNanny\Test Design Specifications\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Li\Programs\Xampp\htdocs\GrannyNanny\Test Design Specifications\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595"/>
   </bookViews>
   <sheets>
     <sheet name="User Registration" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="60">
   <si>
     <t>Test Design Specification Identifier</t>
   </si>
@@ -201,180 +200,12 @@
   <si>
     <t>Test registration form with confirm password field left empty</t>
   </si>
-  <si>
-    <t>Test case number</t>
-  </si>
-  <si>
-    <t>Test case name</t>
-  </si>
-  <si>
-    <t>Step to reproduce</t>
-  </si>
-  <si>
-    <t>Actual result</t>
-  </si>
-  <si>
-    <t>Proper errors displayed with invalid data entered</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Login with user </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2. Go to "Search nanny page" </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3. Click choice nanny button </t>
-  </si>
-  <si>
-    <t>5. Click "Book" button</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alert "моля попълнете име" appears </t>
-  </si>
-  <si>
-    <t>You were redirected to book nanny form</t>
-  </si>
-  <si>
-    <t>1. Login with user</t>
-  </si>
-  <si>
-    <t>3. Click choice nanny button</t>
-  </si>
-  <si>
-    <t>2. Go to "Search nanny page"</t>
-  </si>
-  <si>
-    <t>Alert "моля попълнете фамилия" appears</t>
-  </si>
-  <si>
-    <t>You were redicted to book nanny form</t>
-  </si>
-  <si>
-    <t>4. Leave the "email" field empty</t>
-  </si>
-  <si>
-    <t>Alert "моля попълнете email" appears</t>
-  </si>
-  <si>
-    <t>Proper errors display with invalid data entered</t>
-  </si>
-  <si>
-    <t>4. Leave the "phone number" field empty</t>
-  </si>
-  <si>
-    <t>Alert "моля попълнете телефон" appears</t>
-  </si>
-  <si>
-    <t>4. Leave the "lastname" field empty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4. Leave the "firstname" field empty  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4. Add to "firstname" field invalid data  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alert "моля попълнете валиден ‘field name’" appears </t>
-  </si>
-  <si>
-    <t>4. Leave the "city" drop-down nothing</t>
-  </si>
-  <si>
-    <t>Alert "моля изберете град"  appears</t>
-  </si>
-  <si>
-    <t>3. Click choise nanny button</t>
-  </si>
-  <si>
-    <t>Alert "Моля въведете адрес" appears</t>
-  </si>
-  <si>
-    <t>5. Click "Book button</t>
-  </si>
-  <si>
-    <t>Alert "Моля въведете брой деца" appears</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The information was send succsessfully and display message "Вашето запитване беше изпратено успешно!" </t>
-  </si>
-  <si>
-    <t>Testing "Book" form with valid data</t>
-  </si>
-  <si>
-    <t>Testing "Book" form with valid data in fields</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The information was send successfully and display message "Вашето запитване беше изпратено успешно!" </t>
-  </si>
-  <si>
-    <t>4. Leave the non-required "Information" field empty</t>
-  </si>
-  <si>
-    <t>4. Leave the"address" field empty</t>
-  </si>
-  <si>
-    <t>4. Leave the "Children" field empty</t>
-  </si>
-  <si>
-    <t>4. Add to "Children" field valid  data with integer from 0 to 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5. Add to another fields valid data </t>
-  </si>
-  <si>
-    <t>6. Click "Book" button</t>
-  </si>
-  <si>
-    <t>5. Add to another fields valid data</t>
-  </si>
-  <si>
-    <t>4. Choice from drop-down menu "start date" and "end date"</t>
-  </si>
-  <si>
-    <t>The information was send successfully and display message "Вашето запитване беше изпратено успешно!"</t>
-  </si>
-  <si>
-    <t>Testing "Book" form with all valid data</t>
-  </si>
-  <si>
-    <t>4. Add to all fields valid data</t>
-  </si>
-  <si>
-    <t>1. Login with "booking" nanny profile</t>
-  </si>
-  <si>
-    <t>2. Go to "Home page"</t>
-  </si>
-  <si>
-    <t>3. The nanny which the user has chosen to work with must have the same form which the user sent with the corresponding information at her home page</t>
-  </si>
-  <si>
-    <t>Testing corresponding information at nanny home page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4. There are "приеми" acception button </t>
-  </si>
-  <si>
-    <t>3. The nanny which the user has chosed to worki with must have the same form which the user sent with the corresponding information at her home page</t>
-  </si>
-  <si>
-    <t>4. There are "приеми" acception button</t>
-  </si>
-  <si>
-    <t>4. Add to "lastname" field invalid data</t>
-  </si>
-  <si>
-    <t>Alert "моля попълнете валидна фамилия" appears</t>
-  </si>
-  <si>
-    <t>asdasdas</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -409,21 +240,6 @@
       <color rgb="FF980000"/>
       <name val="Arial"/>
     </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -445,7 +261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -485,37 +301,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -803,7 +588,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1007"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -862,13 +647,13 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="2"/>
@@ -972,13 +757,13 @@
       <c r="Z4" s="4"/>
     </row>
     <row r="5" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="1"/>
@@ -1482,13 +1267,13 @@
       <c r="Z17" s="4"/>
     </row>
     <row r="18" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="1"/>
@@ -29283,1501 +29068,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K112"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="42.42578125" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" customWidth="1"/>
-    <col min="4" max="4" width="28.140625" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="20"/>
-    </row>
-    <row r="2" spans="1:10" s="14" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="20"/>
-    </row>
-    <row r="3" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="18">
-        <v>1</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="20"/>
-    </row>
-    <row r="4" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="18"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="20"/>
-    </row>
-    <row r="5" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="18"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="20"/>
-    </row>
-    <row r="6" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="18"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="20"/>
-    </row>
-    <row r="7" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="18"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="20"/>
-    </row>
-    <row r="8" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="18"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="20"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="18">
-        <v>2</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="20"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="18"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="20"/>
-    </row>
-    <row r="11" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="18"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="20"/>
-    </row>
-    <row r="12" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="18"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="20"/>
-    </row>
-    <row r="13" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="18"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="20"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="18"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="20"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="18">
-        <v>3</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="20"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="18"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16" s="17"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="20"/>
-    </row>
-    <row r="17" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="18"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="20"/>
-    </row>
-    <row r="18" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="18"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="20"/>
-    </row>
-    <row r="19" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="18"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="20"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="18"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="20"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="18">
-        <v>4</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="D21" s="17"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="20"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="18"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="D22" s="17"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="20"/>
-    </row>
-    <row r="23" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="18"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="20"/>
-    </row>
-    <row r="24" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="18"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="D24" s="17"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="20"/>
-    </row>
-    <row r="25" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="18"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="D25" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="20"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="18"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="20"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="18">
-        <v>5</v>
-      </c>
-      <c r="B27" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="D27" s="17"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="20"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="18"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="D28" s="17"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="20"/>
-    </row>
-    <row r="29" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="18"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="D29" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="20"/>
-    </row>
-    <row r="30" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="18"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="D30" s="17"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="20"/>
-    </row>
-    <row r="31" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="18"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="D31" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="18"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="18"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="18">
-        <v>6</v>
-      </c>
-      <c r="B34" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="C34" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="D34" s="21"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="20"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="18"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="D35" s="21"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="20"/>
-    </row>
-    <row r="36" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="18"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="D36" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
-    </row>
-    <row r="37" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="18"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="D37" s="17"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
-    </row>
-    <row r="38" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="18"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="D38" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="20"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="18"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="20"/>
-      <c r="J39" s="20"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="18">
-        <v>6</v>
-      </c>
-      <c r="B40" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="C40" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="D40" s="17"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="20"/>
-      <c r="J40" s="20"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="18"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="D41" s="17"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="18"/>
-    </row>
-    <row r="42" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A42" s="18"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="D42" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="18"/>
-    </row>
-    <row r="43" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="18"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="D43" s="17"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="18"/>
-    </row>
-    <row r="44" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="18"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="D44" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="18"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="18"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="18"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="18">
-        <v>7</v>
-      </c>
-      <c r="B46" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="C46" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="D46" s="17"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="18"/>
-      <c r="H46" s="18"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="18"/>
-      <c r="B47" s="17"/>
-      <c r="C47" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="D47" s="17"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="18"/>
-      <c r="H47" s="18"/>
-    </row>
-    <row r="48" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A48" s="18"/>
-      <c r="B48" s="17"/>
-      <c r="C48" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="D48" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="E48" s="18"/>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
-      <c r="H48" s="18"/>
-    </row>
-    <row r="49" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A49" s="18"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="D49" s="17"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="18"/>
-      <c r="H49" s="18"/>
-    </row>
-    <row r="50" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A50" s="18"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="D50" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="E50" s="18"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="18"/>
-      <c r="H50" s="18"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="18"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="18"/>
-      <c r="G51" s="18"/>
-      <c r="H51" s="18"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="18">
-        <v>8</v>
-      </c>
-      <c r="B52" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="C52" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="D52" s="17"/>
-      <c r="E52" s="18"/>
-      <c r="F52" s="18"/>
-      <c r="G52" s="18"/>
-      <c r="H52" s="18"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="18"/>
-      <c r="B53" s="17"/>
-      <c r="C53" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="D53" s="17"/>
-      <c r="E53" s="18"/>
-      <c r="F53" s="18"/>
-      <c r="G53" s="18"/>
-      <c r="H53" s="18"/>
-    </row>
-    <row r="54" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A54" s="18"/>
-      <c r="B54" s="23"/>
-      <c r="C54" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="D54" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="E54" s="16"/>
-      <c r="F54" s="16"/>
-    </row>
-    <row r="55" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A55" s="18"/>
-      <c r="B55" s="23"/>
-      <c r="C55" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="D55" s="23"/>
-      <c r="E55" s="16"/>
-      <c r="F55" s="16"/>
-    </row>
-    <row r="56" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A56" s="18"/>
-      <c r="B56" s="23"/>
-      <c r="C56" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="D56" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="E56" s="16"/>
-      <c r="F56" s="16"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="18"/>
-      <c r="B57" s="23"/>
-      <c r="C57" s="17"/>
-      <c r="D57" s="23"/>
-      <c r="E57" s="16"/>
-      <c r="F57" s="16"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="18">
-        <v>9</v>
-      </c>
-      <c r="B58" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="C58" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="D58" s="23"/>
-      <c r="E58" s="16"/>
-      <c r="F58" s="16"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" s="18"/>
-      <c r="B59" s="23"/>
-      <c r="C59" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="D59" s="23"/>
-      <c r="E59" s="16"/>
-      <c r="F59" s="16"/>
-    </row>
-    <row r="60" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A60" s="18"/>
-      <c r="B60" s="23"/>
-      <c r="C60" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="D60" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="E60" s="16"/>
-      <c r="F60" s="16"/>
-    </row>
-    <row r="61" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A61" s="18"/>
-      <c r="B61" s="23"/>
-      <c r="C61" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="D61" s="24"/>
-      <c r="E61" s="16"/>
-      <c r="F61" s="16"/>
-    </row>
-    <row r="62" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A62" s="18"/>
-      <c r="B62" s="23"/>
-      <c r="C62" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="D62" s="23"/>
-      <c r="E62" s="16"/>
-      <c r="F62" s="16"/>
-    </row>
-    <row r="63" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A63" s="18"/>
-      <c r="B63" s="23"/>
-      <c r="C63" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="D63" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="E63" s="16"/>
-      <c r="F63" s="16"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" s="18"/>
-      <c r="B64" s="23"/>
-      <c r="C64" s="17"/>
-      <c r="D64" s="23"/>
-      <c r="E64" s="16"/>
-      <c r="F64" s="16"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="18">
-        <v>10</v>
-      </c>
-      <c r="B65" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="C65" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="D65" s="23"/>
-      <c r="E65" s="16"/>
-      <c r="F65" s="16"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="18"/>
-      <c r="B66" s="23"/>
-      <c r="C66" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="D66" s="23"/>
-      <c r="E66" s="16"/>
-      <c r="F66" s="16"/>
-    </row>
-    <row r="67" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A67" s="18"/>
-      <c r="B67" s="23"/>
-      <c r="C67" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="D67" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="E67" s="16"/>
-      <c r="F67" s="16"/>
-    </row>
-    <row r="68" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A68" s="18"/>
-      <c r="B68" s="23"/>
-      <c r="C68" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="D68" s="23"/>
-      <c r="E68" s="16"/>
-      <c r="F68" s="16"/>
-    </row>
-    <row r="69" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A69" s="18"/>
-      <c r="B69" s="23"/>
-      <c r="C69" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="D69" s="23"/>
-      <c r="E69" s="16"/>
-      <c r="F69" s="16"/>
-    </row>
-    <row r="70" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A70" s="18"/>
-      <c r="B70" s="23"/>
-      <c r="C70" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="D70" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="E70" s="16"/>
-      <c r="F70" s="16"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" s="18"/>
-      <c r="B71" s="23"/>
-      <c r="C71" s="17"/>
-      <c r="D71" s="23"/>
-      <c r="E71" s="16"/>
-      <c r="F71" s="16"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="18">
-        <v>11</v>
-      </c>
-      <c r="B72" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="C72" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="D72" s="23"/>
-      <c r="E72" s="16"/>
-      <c r="F72" s="16"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" s="18"/>
-      <c r="B73" s="23"/>
-      <c r="C73" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="D73" s="23"/>
-      <c r="E73" s="16"/>
-      <c r="F73" s="16"/>
-    </row>
-    <row r="74" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A74" s="18"/>
-      <c r="B74" s="23"/>
-      <c r="C74" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="D74" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="E74" s="16"/>
-      <c r="F74" s="16"/>
-    </row>
-    <row r="75" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A75" s="18"/>
-      <c r="B75" s="23"/>
-      <c r="C75" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="D75" s="23"/>
-      <c r="E75" s="16"/>
-      <c r="F75" s="16"/>
-    </row>
-    <row r="76" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A76" s="18"/>
-      <c r="B76" s="23"/>
-      <c r="C76" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="D76" s="23"/>
-      <c r="E76" s="16"/>
-      <c r="F76" s="16"/>
-    </row>
-    <row r="77" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A77" s="18"/>
-      <c r="B77" s="23"/>
-      <c r="C77" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="D77" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="E77" s="16"/>
-      <c r="F77" s="16"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78" s="18"/>
-      <c r="B78" s="23"/>
-      <c r="C78" s="17"/>
-      <c r="D78" s="23"/>
-      <c r="E78" s="16"/>
-      <c r="F78" s="16"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79" s="18">
-        <v>12</v>
-      </c>
-      <c r="B79" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="C79" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="D79" s="23"/>
-      <c r="E79" s="16"/>
-      <c r="F79" s="16"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" s="18"/>
-      <c r="B80" s="23"/>
-      <c r="C80" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="D80" s="23"/>
-      <c r="E80" s="16"/>
-      <c r="F80" s="16"/>
-    </row>
-    <row r="81" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A81" s="18"/>
-      <c r="B81" s="23"/>
-      <c r="C81" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="D81" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="E81" s="16"/>
-      <c r="F81" s="16"/>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A82" s="18"/>
-      <c r="B82" s="23"/>
-      <c r="C82" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="D82" s="23"/>
-      <c r="E82" s="16"/>
-      <c r="F82" s="16"/>
-    </row>
-    <row r="83" spans="1:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="A83" s="18"/>
-      <c r="B83" s="23"/>
-      <c r="C83" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="D83" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="E83" s="16"/>
-      <c r="F83" s="16"/>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A84" s="18"/>
-      <c r="B84" s="17"/>
-      <c r="C84" s="17"/>
-      <c r="D84" s="17"/>
-      <c r="E84" s="18"/>
-      <c r="F84" s="18"/>
-      <c r="G84" s="18"/>
-      <c r="H84" s="18"/>
-      <c r="I84" s="18"/>
-      <c r="J84" s="18"/>
-      <c r="K84" s="18"/>
-    </row>
-    <row r="85" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A85" s="18">
-        <v>13</v>
-      </c>
-      <c r="B85" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="C85" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="D85" s="17"/>
-      <c r="E85" s="18"/>
-      <c r="F85" s="18"/>
-      <c r="G85" s="18"/>
-      <c r="H85" s="18"/>
-      <c r="I85" s="18"/>
-      <c r="J85" s="18"/>
-      <c r="K85" s="18"/>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A86" s="18"/>
-      <c r="B86" s="17"/>
-      <c r="C86" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="D86" s="17"/>
-      <c r="E86" s="18"/>
-      <c r="F86" s="18"/>
-      <c r="G86" s="18"/>
-      <c r="H86" s="18"/>
-      <c r="I86" s="18"/>
-      <c r="J86" s="18"/>
-      <c r="K86" s="18"/>
-    </row>
-    <row r="87" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A87" s="18"/>
-      <c r="B87" s="17"/>
-      <c r="C87" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="D87" s="17"/>
-      <c r="E87" s="18"/>
-      <c r="F87" s="18"/>
-      <c r="G87" s="18"/>
-      <c r="H87" s="18"/>
-      <c r="I87" s="18"/>
-      <c r="J87" s="18"/>
-      <c r="K87" s="18"/>
-    </row>
-    <row r="88" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A88" s="18"/>
-      <c r="B88" s="17"/>
-      <c r="C88" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="D88" s="17"/>
-      <c r="E88" s="18"/>
-      <c r="F88" s="18"/>
-      <c r="G88" s="18"/>
-      <c r="H88" s="18"/>
-      <c r="I88" s="18"/>
-      <c r="J88" s="18"/>
-      <c r="K88" s="18"/>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A89" s="18"/>
-      <c r="B89" s="17"/>
-      <c r="C89" s="17"/>
-      <c r="D89" s="17"/>
-      <c r="E89" s="18"/>
-      <c r="F89" s="18"/>
-      <c r="G89" s="18"/>
-      <c r="H89" s="18"/>
-      <c r="I89" s="18"/>
-      <c r="J89" s="18"/>
-      <c r="K89" s="18"/>
-    </row>
-    <row r="90" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A90" s="18">
-        <v>14</v>
-      </c>
-      <c r="B90" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="C90" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="D90" s="17"/>
-      <c r="E90" s="18"/>
-      <c r="F90" s="18"/>
-      <c r="G90" s="18"/>
-      <c r="H90" s="18"/>
-      <c r="I90" s="18"/>
-      <c r="J90" s="18"/>
-      <c r="K90" s="18"/>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A91" s="18"/>
-      <c r="B91" s="17"/>
-      <c r="C91" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="D91" s="17"/>
-      <c r="E91" s="18"/>
-      <c r="F91" s="18"/>
-      <c r="G91" s="18"/>
-      <c r="H91" s="18"/>
-      <c r="I91" s="18"/>
-      <c r="J91" s="18"/>
-      <c r="K91" s="18"/>
-    </row>
-    <row r="92" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A92" s="18"/>
-      <c r="B92" s="17"/>
-      <c r="C92" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="D92" s="17"/>
-      <c r="E92" s="18"/>
-      <c r="F92" s="18"/>
-      <c r="G92" s="18"/>
-      <c r="H92" s="18"/>
-      <c r="I92" s="18"/>
-      <c r="J92" s="18"/>
-      <c r="K92" s="18"/>
-    </row>
-    <row r="93" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A93" s="18"/>
-      <c r="B93" s="17"/>
-      <c r="C93" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="D93" s="17"/>
-      <c r="E93" s="18"/>
-      <c r="F93" s="18"/>
-      <c r="G93" s="18"/>
-      <c r="H93" s="18"/>
-      <c r="I93" s="18"/>
-      <c r="J93" s="18"/>
-      <c r="K93" s="18"/>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A94" s="18"/>
-      <c r="B94" s="17"/>
-      <c r="C94" s="17"/>
-      <c r="D94" s="17"/>
-      <c r="E94" s="18"/>
-      <c r="F94" s="18"/>
-      <c r="G94" s="18"/>
-      <c r="H94" s="18"/>
-      <c r="I94" s="18"/>
-      <c r="J94" s="18"/>
-      <c r="K94" s="18"/>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A95" s="18"/>
-      <c r="B95" s="17"/>
-      <c r="C95" s="17"/>
-      <c r="D95" s="17"/>
-      <c r="E95" s="18"/>
-      <c r="F95" s="18"/>
-      <c r="G95" s="18"/>
-      <c r="H95" s="18"/>
-      <c r="I95" s="18"/>
-      <c r="J95" s="18"/>
-      <c r="K95" s="18"/>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A96" s="18"/>
-      <c r="B96" s="17"/>
-      <c r="C96" s="17"/>
-      <c r="D96" s="17"/>
-      <c r="E96" s="18"/>
-      <c r="F96" s="18"/>
-      <c r="G96" s="18"/>
-      <c r="H96" s="18"/>
-      <c r="I96" s="18"/>
-      <c r="J96" s="18"/>
-      <c r="K96" s="18"/>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A97" s="18"/>
-      <c r="B97" s="17"/>
-      <c r="C97" s="17"/>
-      <c r="D97" s="17"/>
-      <c r="E97" s="18"/>
-      <c r="F97" s="18"/>
-      <c r="G97" s="18"/>
-      <c r="H97" s="18"/>
-      <c r="I97" s="18"/>
-      <c r="J97" s="18"/>
-      <c r="K97" s="18"/>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A98" s="18"/>
-      <c r="B98" s="18"/>
-      <c r="C98" s="17"/>
-      <c r="D98" s="18"/>
-      <c r="E98" s="18"/>
-      <c r="F98" s="18"/>
-      <c r="G98" s="18"/>
-      <c r="H98" s="18"/>
-      <c r="I98" s="18"/>
-      <c r="J98" s="18"/>
-      <c r="K98" s="18"/>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A99" s="18"/>
-      <c r="B99" s="18"/>
-      <c r="C99" s="17"/>
-      <c r="D99" s="18"/>
-      <c r="E99" s="18"/>
-      <c r="F99" s="18"/>
-      <c r="G99" s="18"/>
-      <c r="H99" s="18"/>
-      <c r="I99" s="18"/>
-      <c r="J99" s="18"/>
-      <c r="K99" s="18"/>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A100" s="18"/>
-      <c r="B100" s="18"/>
-      <c r="C100" s="17"/>
-      <c r="D100" s="18"/>
-      <c r="E100" s="18"/>
-      <c r="F100" s="18"/>
-      <c r="G100" s="18"/>
-      <c r="H100" s="18"/>
-      <c r="I100" s="18"/>
-      <c r="J100" s="18"/>
-      <c r="K100" s="18"/>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A101" s="18"/>
-      <c r="B101" s="18"/>
-      <c r="C101" s="17"/>
-      <c r="D101" s="18"/>
-      <c r="E101" s="18"/>
-      <c r="F101" s="18"/>
-      <c r="G101" s="18"/>
-      <c r="H101" s="18"/>
-      <c r="I101" s="18"/>
-      <c r="J101" s="18"/>
-      <c r="K101" s="18"/>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A102" s="18"/>
-      <c r="B102" s="18"/>
-      <c r="C102" s="17"/>
-      <c r="D102" s="18"/>
-      <c r="E102" s="18"/>
-      <c r="F102" s="18"/>
-      <c r="G102" s="18"/>
-      <c r="H102" s="18"/>
-      <c r="I102" s="18"/>
-      <c r="J102" s="18"/>
-      <c r="K102" s="18"/>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A103" s="18"/>
-      <c r="B103" s="18"/>
-      <c r="C103" s="17"/>
-      <c r="D103" s="18"/>
-      <c r="E103" s="18"/>
-      <c r="F103" s="18"/>
-      <c r="G103" s="18"/>
-      <c r="H103" s="18"/>
-      <c r="I103" s="18"/>
-      <c r="J103" s="18"/>
-      <c r="K103" s="18"/>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A104" s="18"/>
-      <c r="B104" s="18"/>
-      <c r="C104" s="17"/>
-      <c r="D104" s="18"/>
-      <c r="E104" s="18"/>
-      <c r="F104" s="18"/>
-      <c r="G104" s="18"/>
-      <c r="H104" s="18"/>
-      <c r="I104" s="18"/>
-      <c r="J104" s="18"/>
-      <c r="K104" s="18"/>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A105" s="18"/>
-      <c r="B105" s="18"/>
-      <c r="C105" s="17"/>
-      <c r="D105" s="18"/>
-      <c r="E105" s="18"/>
-      <c r="F105" s="18"/>
-      <c r="G105" s="18"/>
-      <c r="H105" s="18"/>
-      <c r="I105" s="18"/>
-      <c r="J105" s="18"/>
-      <c r="K105" s="18"/>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A106" s="18"/>
-      <c r="B106" s="18"/>
-      <c r="C106" s="17"/>
-      <c r="D106" s="18"/>
-      <c r="E106" s="18"/>
-      <c r="F106" s="18"/>
-      <c r="G106" s="18"/>
-      <c r="H106" s="18"/>
-      <c r="I106" s="18"/>
-      <c r="J106" s="18"/>
-      <c r="K106" s="18"/>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A107" s="18"/>
-      <c r="B107" s="18"/>
-      <c r="C107" s="17"/>
-      <c r="D107" s="18"/>
-      <c r="E107" s="18"/>
-      <c r="F107" s="18"/>
-      <c r="G107" s="18"/>
-      <c r="H107" s="18"/>
-      <c r="I107" s="18"/>
-      <c r="J107" s="18"/>
-      <c r="K107" s="18"/>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A108" s="18"/>
-      <c r="B108" s="18"/>
-      <c r="C108" s="17"/>
-      <c r="D108" s="18"/>
-      <c r="E108" s="18"/>
-      <c r="F108" s="18"/>
-      <c r="G108" s="18"/>
-      <c r="H108" s="18"/>
-      <c r="I108" s="18"/>
-      <c r="J108" s="18"/>
-      <c r="K108" s="18"/>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A109" s="18"/>
-      <c r="B109" s="18"/>
-      <c r="C109" s="17"/>
-      <c r="D109" s="18"/>
-      <c r="E109" s="18"/>
-      <c r="F109" s="18"/>
-      <c r="G109" s="18"/>
-      <c r="H109" s="18"/>
-      <c r="I109" s="18"/>
-      <c r="J109" s="18"/>
-      <c r="K109" s="18"/>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C110" s="22"/>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C111" s="22"/>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C112" s="22"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>